--- a/Python/Data/Final/kidney.xlsx
+++ b/Python/Data/Final/kidney.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="197">
   <si>
     <t>CT/ID</t>
   </si>
@@ -66,27 +64,6 @@
   </si>
   <si>
     <t>CD-IC-A</t>
-  </si>
-  <si>
-    <t>[kidney loop of Henle cortical thick ascending limb epithelial cell](http://www.ontobee.org/ontology/CL?iri=http://purl.obolibrary.org/obo/1001109)</t>
-  </si>
-  <si>
-    <t>Outer Medullary Collecting Duct Intercalated Type A</t>
-  </si>
-  <si>
-    <t>Outer Medullary Collecting Duct Principal</t>
-  </si>
-  <si>
-    <t>Papillary Tip Epithelial</t>
-  </si>
-  <si>
-    <t>Parietal Epithelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peritubular Capilary Endothelial </t>
-  </si>
-  <si>
-    <t>kidney loop of Henle cortical thick ascending limb epithelial cell</t>
   </si>
   <si>
     <t>AZ.CT/ID</t>
@@ -268,7 +245,28 @@
     <t>vasa recta ascending limb cell</t>
   </si>
   <si>
+    <t>[kidney loop of Henle cortical thick ascending limb epithelial cell](http://www.ontobee.org/ontology/CL?iri=http://purl.obolibrary.org/obo/1001109)</t>
+  </si>
+  <si>
+    <t>Outer Medullary Collecting Duct Intercalated Type A</t>
+  </si>
+  <si>
+    <t>Outer Medullary Collecting Duct Principal</t>
+  </si>
+  <si>
+    <t>Papillary Tip Epithelial</t>
+  </si>
+  <si>
+    <t>Parietal Epithelial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peritubular Capilary Endothelial </t>
+  </si>
+  <si>
     <t>CL:000084</t>
+  </si>
+  <si>
+    <t>kidney loop of Henle cortical thick ascending limb epithelial cell</t>
   </si>
   <si>
     <t>T cell</t>
@@ -993,240 +991,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
@@ -1310,7 +1074,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,50 +1481,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1458,556 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2017,19 +1631,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>83</v>
@@ -2411,7 +2025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -2421,19 +2035,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>83</v>
@@ -2470,16 +2084,16 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2522,10 +2136,10 @@
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2545,10 +2159,10 @@
         <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2923,6 +2537,240 @@
       </c>
       <c r="G22" t="s">
         <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/kidney.xlsx
+++ b/Python/Data/Final/kidney.xlsx
@@ -1542,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,63 +1556,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Python/Data/Final/kidney.xlsx
+++ b/Python/Data/Final/kidney.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IUB\CNS_parttime\ASCTB Azimuth Comparison\ASCTB-Azimuth-Comparison-22\Python\Data\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97355FB-65F9-49D6-818D-7991D15949E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00729719-29DA-4ADE-AD4B-32CEA9CC811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Az_Asctb_cts_perfect_matches" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
     <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
     <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
+    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="266">
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -1229,19 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2032,16 +2023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="124.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2129,9 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2266,21 +2248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2395,21 +2365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="118.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2680,16 +2638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2799,114 +2750,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/kidney.xlsx
+++ b/Python/Data/Final/kidney.xlsx
@@ -1,33 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IUB\CNS_parttime\ASCTB Azimuth Comparison\ASCTB-Azimuth-Comparison-22\Python\Data\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00729719-29DA-4ADE-AD4B-32CEA9CC811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8CC889-4B6B-4833-A9B7-097A44D030DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="1" r:id="rId1"/>
-    <sheet name="Az_incorrect_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Az_match_tree_crosswalk" sheetId="4" r:id="rId4"/>
-    <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
-    <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
-    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_crosswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_crosswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="9" r:id="rId9"/>
+    <sheet name="Final_Matches" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="263">
+  <si>
+    <t>CT/ID</t>
+  </si>
+  <si>
+    <t>CT/LABEL</t>
+  </si>
+  <si>
+    <t>CT/LABEL.Author</t>
+  </si>
+  <si>
+    <t>PT-S3</t>
+  </si>
+  <si>
+    <t>DTL1</t>
+  </si>
+  <si>
+    <t>DTL2</t>
+  </si>
+  <si>
+    <t>DTL3</t>
+  </si>
+  <si>
+    <t>DCT1</t>
+  </si>
+  <si>
+    <t>DCT2</t>
+  </si>
+  <si>
+    <t>CNT-PC</t>
+  </si>
+  <si>
+    <t>CNT-IC</t>
+  </si>
+  <si>
+    <t>CNT-IC-A</t>
+  </si>
+  <si>
+    <t>CNT-IC-B</t>
+  </si>
+  <si>
+    <t>tPC-IC</t>
+  </si>
+  <si>
+    <t>CD-IC-A</t>
+  </si>
+  <si>
+    <t>Proximal Tubule Cell Epithelial Segment 3</t>
+  </si>
+  <si>
+    <t>Descending Thin Limb Cell Type 1</t>
+  </si>
+  <si>
+    <t>Descending Thin Limb Cell Type 2</t>
+  </si>
+  <si>
+    <t>Descending Thin Limb Cell Type 3</t>
+  </si>
+  <si>
+    <t>Distal Convoluted Tubule Cell Type 1</t>
+  </si>
+  <si>
+    <t>Distal Convoluted Tubule Cell Type 2</t>
+  </si>
+  <si>
+    <t>Connecting Tubule Principal Cell</t>
+  </si>
+  <si>
+    <t>Connecting Tubule Intercalated Cell</t>
+  </si>
+  <si>
+    <t>Connecting Tubule Intercalated Cell Type A</t>
+  </si>
+  <si>
+    <t>Connecting Tubule Intercalated Cell Type B</t>
+  </si>
+  <si>
+    <t>Transitional principal-intercalated cell</t>
+  </si>
+  <si>
+    <t>Collecting Duct Intercalated Cell Type A</t>
+  </si>
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -418,100 +501,10 @@
     <t>Collecting Duct Principal Cell</t>
   </si>
   <si>
-    <t>CT/ID</t>
-  </si>
-  <si>
-    <t>CT/LABEL</t>
-  </si>
-  <si>
-    <t>CT/LABEL.Author</t>
-  </si>
-  <si>
     <t>[kidney loop of Henle cortical thick ascending limb epithelial cell](http://www.ontobee.org/ontology/CL?iri=http://purl.obolibrary.org/obo/1001109)</t>
   </si>
   <si>
     <t>Papillary Tip Epithelial</t>
-  </si>
-  <si>
-    <t>PT-S3</t>
-  </si>
-  <si>
-    <t>DTL1</t>
-  </si>
-  <si>
-    <t>DTL2</t>
-  </si>
-  <si>
-    <t>DTL3</t>
-  </si>
-  <si>
-    <t>DCT1</t>
-  </si>
-  <si>
-    <t>DCT2</t>
-  </si>
-  <si>
-    <t>CNT-PC</t>
-  </si>
-  <si>
-    <t>CNT-IC</t>
-  </si>
-  <si>
-    <t>CNT-IC-A</t>
-  </si>
-  <si>
-    <t>CNT-IC-B</t>
-  </si>
-  <si>
-    <t>tPC-IC</t>
-  </si>
-  <si>
-    <t>CD-IC-A</t>
-  </si>
-  <si>
-    <t>capsule mesenchymal stromal cell</t>
-  </si>
-  <si>
-    <t>Proximal Tubule Epithelial Cell Segment 1</t>
-  </si>
-  <si>
-    <t>Proximal Tubule Epithelial Cell Segment 2</t>
-  </si>
-  <si>
-    <t>Proximal Tubule Cell Epithelial Segment 3</t>
-  </si>
-  <si>
-    <t>Descending Thin Limb Cell Type 1</t>
-  </si>
-  <si>
-    <t>Descending Thin Limb Cell Type 2</t>
-  </si>
-  <si>
-    <t>Descending Thin Limb Cell Type 3</t>
-  </si>
-  <si>
-    <t>Distal Convoluted Tubule Cell Type 1</t>
-  </si>
-  <si>
-    <t>Distal Convoluted Tubule Cell Type 2</t>
-  </si>
-  <si>
-    <t>Connecting Tubule Principal Cell</t>
-  </si>
-  <si>
-    <t>Connecting Tubule Intercalated Cell</t>
-  </si>
-  <si>
-    <t>Connecting Tubule Intercalated Cell Type A</t>
-  </si>
-  <si>
-    <t>Connecting Tubule Intercalated Cell Type B</t>
-  </si>
-  <si>
-    <t>Transitional principal-intercalated cell</t>
-  </si>
-  <si>
-    <t>Collecting Duct Intercalated Cell Type A</t>
   </si>
   <si>
     <t>Match Found</t>
@@ -1228,6 +1221,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1236,782 +1706,782 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2019,8 +2489,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2029,79 +2499,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2109,9 +2579,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2119,124 +2589,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2244,116 +2603,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2361,8 +2722,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2371,262 +2732,262 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2634,8 +2995,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2644,101 +3005,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2746,449 +3107,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
